--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.192</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.321</v>
+        <v>16.038</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.594</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.49</v>
+        <v>21.113</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.281</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.102</v>
+        <v>9.276</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.92087893774669</v>
+        <v>9.49382395977255</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.04123977826881</v>
+        <v>18.84963877464271</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.27012059059076</v>
+        <v>25.7581466715984</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.25846211241921</v>
+        <v>0.1790341794620218</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.95660007606086</v>
+        <v>15.44374510109677</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.97527625784393</v>
+        <v>19.85648847818451</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.76127215382911</v>
+        <v>5.787523323749845</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.42601762140643</v>
+        <v>25.60653571711848</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.52866576840692</v>
+        <v>32.87078577823628</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.39863539696365</v>
+        <v>17.9596122135489</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.91575245134128</v>
+        <v>26.52308645618718</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>46.19395117583453</v>
+        <v>28.11072752088749</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.77647415100527</v>
+        <v>13.25317564867647</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>40.25644292348398</v>
+        <v>16.16620099454632</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>46.40118587434907</v>
+        <v>27.63152901717758</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.26106503245912</v>
+        <v>15.43812856716355</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.82531802032838</v>
+        <v>25.92332373891172</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.0947908464115</v>
+        <v>32.54664403864709</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.83292982904756</v>
+        <v>1.78319685138408</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.10716785590554</v>
+        <v>11.84946319747293</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.14220896224197</v>
+        <v>17.02773663494855</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.85674128803735</v>
+        <v>0.9766571877015267</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.00592750380543</v>
+        <v>22.27078032569436</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.56086084122833</v>
+        <v>9.894764899579307</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.75444017808971</v>
+        <v>30.68572328923926</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.98045934302304</v>
+        <v>34.11091128929198</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11.02722788886273</v>
+        <v>4.931814233838427</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.80394532699144</v>
+        <v>33.11963194146816</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.81926093315251</v>
+        <v>34.93073697668888</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20.62062291349305</v>
+        <v>13.72403030164269</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.35129079982848</v>
+        <v>45.2485854219744</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.45116970790633</v>
+        <v>48.89420015312285</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.27124081941402</v>
+        <v>47.02776010207525</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.81349035021019</v>
+        <v>55.18674733633015</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.09386057888013</v>
+        <v>55.94901659223255</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.54684918444364</v>
+        <v>26.03446994754779</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.12531002149412</v>
+        <v>44.4465294225859</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.26559937415896</v>
+        <v>51.78762749137702</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.91531752226642</v>
+        <v>17.52702853491493</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.55309805720584</v>
+        <v>41.3656108525896</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.82045879008326</v>
+        <v>45.96323581482179</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>14.61501192470301</v>
+        <v>10.0151191547841</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.96826081278498</v>
+        <v>35.27324825628531</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.00078593624799</v>
+        <v>39.21007656429784</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.73089158047077</v>
+        <v>15.74247148124967</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>38.94637046978343</v>
+        <v>50.65940237190895</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14.97543381834672</v>
+        <v>2.108713029569863</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.173111444715</v>
+        <v>24.53149413246326</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>35.39587079305601</v>
+        <v>29.58341009704867</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>11.48385062125332</v>
+        <v>0.9185055857574369</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.26591490065375</v>
+        <v>30.55473868387378</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.27731389407448</v>
+        <v>34.34040410867075</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.08808631169879</v>
+        <v>9.662170640928183</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.82359139770588</v>
+        <v>42.80747879038019</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.92033217293</v>
+        <v>48.04334327047248</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.72900756948005</v>
+        <v>47.24463344701091</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.2709418194309</v>
+        <v>54.43539551036322</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>48.54993112247206</v>
+        <v>57.11208754878118</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.9913332624965</v>
+        <v>18.86375211184238</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.57734101519362</v>
+        <v>40.73500085487476</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.7127101302538</v>
+        <v>49.66434121298255</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>19.33022283823046</v>
+        <v>9.95065365371385</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.97166225280932</v>
+        <v>35.72632461924095</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>40.23593880889707</v>
+        <v>42.71123107088013</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.0723660942859</v>
+        <v>4.880456221779507</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.43040253846257</v>
+        <v>32.01543118201728</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.45923428380393</v>
+        <v>38.67089238059617</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.19897753137683</v>
+        <v>11.64289273845228</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.41882525055392</v>
+        <v>48.46315674307048</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>13.91459667524422</v>
+        <v>-1.928408517877514</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.09943726370907</v>
+        <v>17.41359313079433</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.3310242524213</v>
+        <v>26.90187280166781</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.33314010717702</v>
+        <v>1.943441647565436</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.09997139967338</v>
+        <v>27.82142008708006</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32.12191293778973</v>
+        <v>35.4932142356614</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.90358204143263</v>
+        <v>7.085660802779861</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.62560218366106</v>
+        <v>36.90631215244777</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.73092193950797</v>
+        <v>46.6906232570332</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.56847392465826</v>
+        <v>36.65484428511591</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.10991691828278</v>
+        <v>44.23330249936489</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.39302241852638</v>
+        <v>49.66884153270644</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.86275238286724</v>
+        <v>13.02604124157758</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.4285082350474</v>
+        <v>31.77190976460427</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.57698963897832</v>
+        <v>46.13473552883985</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>18.26916170440224</v>
+        <v>8.543893617963894</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.89853250388348</v>
+        <v>30.23964620997993</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39.17124889953585</v>
+        <v>41.17153226207776</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.9205268226166</v>
+        <v>5.977416273601357</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.26430931369579</v>
+        <v>28.18306650349134</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.30318714339502</v>
+        <v>38.25014904639953</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.01350811029089</v>
+        <v>7.532244521246724</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.22068814315551</v>
+        <v>40.00354534045398</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.12105043807725</v>
+        <v>30.05455160290845</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>39.68261838964766</v>
+        <v>18.87320203766953</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.57966046960749</v>
+        <v>29.98493280275907</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>50.87765207991815</v>
+        <v>34.86796667488934</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.04497401158844</v>
+        <v>6.783789665472046</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>45.31100465768223</v>
+        <v>21.43966860019701</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.44521492954312</v>
+        <v>29.29864392290217</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24.14732169322455</v>
+        <v>10.69560941143415</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>41.29702390312</v>
+        <v>24.20015378864101</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>45.57861123914692</v>
+        <v>33.70387390549942</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.03911013651174</v>
+        <v>-3.826732882627205</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.95495309147098</v>
+        <v>10.69106719715882</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.02307141142492</v>
+        <v>16.40923478575611</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.90662087824483</v>
+        <v>-0.9765372542717614</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.61278612767607</v>
+        <v>23.78040566318901</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.74823380445165</v>
+        <v>34.57775870242642</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.87947785420539</v>
+        <v>28.32370628728248</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>56.99672966969308</v>
+        <v>41.29462101905573</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>60.34484733300909</v>
+        <v>47.17871836489152</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.48430339342987</v>
+        <v>4.932151871522468</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>54.5783149960664</v>
+        <v>25.83921621564138</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.75387336508547</v>
+        <v>37.78982895141655</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.0594070902738</v>
+        <v>56.35837868966868</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.56898720814635</v>
+        <v>54.65997545454239</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.49113915924717</v>
+        <v>62.93671852558835</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>52.79167948137106</v>
+        <v>66.7387495438777</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.83030830705867</v>
+        <v>26.97033280832105</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.19544870801514</v>
+        <v>60.37770890221058</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>53.32620766761522</v>
+        <v>64.89373957531552</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.83258849648557</v>
+        <v>17.171024270035</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.05641139591985</v>
+        <v>46.25376240291089</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.335202813462</v>
+        <v>51.36950725528953</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21.85281108023372</v>
+        <v>11.31994862713194</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.84832541550186</v>
+        <v>43.4864831368843</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>44.91321459509884</v>
+        <v>45.71116708745571</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.81485268255643</v>
+        <v>19.83131549892595</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.58783515265653</v>
+        <v>60.49722943710093</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51.72063552021922</v>
+        <v>66.75453382254067</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.80072792300797</v>
+        <v>75.28345730339058</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.94327591299533</v>
+        <v>83.89060606122979</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>62.29336763434542</v>
+        <v>87.90693298193756</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.30438930574603</v>
+        <v>35.37340976826084</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.49818165521943</v>
+        <v>76.57034748548332</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>62.66947324245883</v>
+        <v>82.54629519457279</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43.52890607597277</v>
+        <v>56.53400677078103</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.02670816748363</v>
+        <v>52.23668961290578</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.94809571546851</v>
+        <v>59.23102117437571</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>53.24738322389324</v>
+        <v>65.35921406061459</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.27529074742844</v>
+        <v>19.68800477898369</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>47.64722492592296</v>
+        <v>57.44625033716324</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>53.77336000827056</v>
+        <v>63.92987260314504</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.252919411228</v>
+        <v>10.32650545182498</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43.48008490319701</v>
+        <v>42.47465347014945</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>47.75556792860007</v>
+        <v>49.30224286630413</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.31535599852468</v>
+        <v>7.400238178151614</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.31534070009297</v>
+        <v>42.62610528422811</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.37627257328162</v>
+        <v>46.89888295169018</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.28821130395841</v>
+        <v>16.93747608279806</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>48.06526399762344</v>
+        <v>60.64495608111895</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>52.19490589504137</v>
+        <v>68.56969348544726</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>51.26268050692804</v>
+        <v>76.71563352287531</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>59.40432440141296</v>
+        <v>83.82795908076301</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>62.75290415876765</v>
+        <v>90.08162566747333</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.75407678098638</v>
+        <v>30.44813949932337</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>56.95420806950951</v>
+        <v>77.06318369249692</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>63.12057204235491</v>
+        <v>84.59602883405023</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>42.33894467700306</v>
+        <v>52.11376489636039</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.86641307121687</v>
+        <v>35.05841963678623</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.7881423015382</v>
+        <v>44.10893811944744</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>52.09131896409124</v>
+        <v>53.71455999135737</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.14602696775082</v>
+        <v>11.608755090825</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.49901986774137</v>
+        <v>44.99838425964838</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.63761704303035</v>
+        <v>56.34206872974384</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.18334155439226</v>
+        <v>9.615661740078579</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.39919272757029</v>
+        <v>37.87951130968203</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.68358042276085</v>
+        <v>49.92084100781305</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.15531451405209</v>
+        <v>8.645392208316707</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.14184646141223</v>
+        <v>39.03178766030602</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.21335508197328</v>
+        <v>47.93762151642476</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.09452659551313</v>
+        <v>13.99726228070197</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.85964391847168</v>
+        <v>53.51602411017245</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>50.99786722035647</v>
+        <v>66.76907635780435</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.09608482362768</v>
+        <v>61.71825700431145</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>58.23837128637671</v>
+        <v>72.19515534224017</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.59133016680956</v>
+        <v>83.07146339192974</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.61724989114579</v>
+        <v>21.24758051959545</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.79959544056155</v>
+        <v>64.3515665108898</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>61.97902973752284</v>
+        <v>78.70468667162544</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.77097574401918</v>
+        <v>5.610504858511398</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.487365919825</v>
+        <v>15.18065568825665</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.63863851285512</v>
+        <v>20.6674316043536</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.215756759689867</v>
+        <v>-0.7083657407899935</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.44635902096142</v>
+        <v>13.06111876988629</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.37381172112445</v>
+        <v>16.82846617901384</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.17621857246925</v>
+        <v>5.4686165376893</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.45268297235614</v>
+        <v>25.51602248539372</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.4731560021792</v>
+        <v>31.27123698419589</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.20730416109375</v>
+        <v>16.87767374599185</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>39.48513550547929</v>
+        <v>22.68827937194534</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.65839895009299</v>
+        <v>24.10547686656188</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.42537149211395</v>
+        <v>7.44632697898161</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.31655437548656</v>
+        <v>9.49235939085413</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.34104192515824</v>
+        <v>18.67316864115888</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.33992027439268</v>
+        <v>3.406984163246271</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.49715439417908</v>
+        <v>15.781485032485</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.69163862866885</v>
+        <v>21.16791506584389</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.08470039583561</v>
+        <v>-5.885782757659292</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.88875716327895</v>
+        <v>5.218278983455978</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.83588024520925</v>
+        <v>9.875887383128452</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.56493389570156</v>
+        <v>-4.590295156959062</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.32216304053971</v>
+        <v>18.55389415471623</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>12.37726367761907</v>
+        <v>4.019920469589422</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.16600030120903</v>
+        <v>24.00466632391593</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.31442142017365</v>
+        <v>26.31613386138927</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>8.949314365128423</v>
+        <v>1.275156505827226</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.25742446854494</v>
+        <v>27.08496360709227</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.18155460677922</v>
+        <v>28.41355944083562</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.99733094955158</v>
+        <v>10.24762758065147</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.33888412005509</v>
+        <v>40.93673115839479</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.35658996857843</v>
+        <v>43.39784550912983</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.04088849756469</v>
+        <v>39.66650244340888</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.3434132167357</v>
+        <v>45.40776443587728</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.51854024291392</v>
+        <v>46.60104901611847</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18.15738499339152</v>
+        <v>14.27493245290914</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.14584782896556</v>
+        <v>30.76391961825929</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.16590077754834</v>
+        <v>36.2068260313097</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.95858638554834</v>
+        <v>1.703283365971437</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.18841051145532</v>
+        <v>26.17671026094757</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.38079063340632</v>
+        <v>29.98672735570439</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>12.82968432731447</v>
+        <v>-2.540277519876007</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.71160290385601</v>
+        <v>22.67430006405831</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.65624501020501</v>
+        <v>26.42821307307624</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.39877656434741</v>
+        <v>4.500417981972824</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.22139902205987</v>
+        <v>39.95107470105253</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>12.78693710086439</v>
+        <v>-2.778204373186004</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.58006452249403</v>
+        <v>18.6205270779943</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.72516657678086</v>
+        <v>22.48695883973</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>9.40046528136007</v>
+        <v>-2.298414605225226</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.71422145297264</v>
+        <v>24.85597413277016</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.63438574716951</v>
+        <v>27.98573855152267</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>18.45913589038733</v>
+        <v>6.700090972508118</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.8058013017068</v>
+        <v>38.77154975192918</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.82031880626513</v>
+        <v>42.76555481726474</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>34.49325352100027</v>
+        <v>39.68138120806032</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.79556712372512</v>
+        <v>44.45798511985787</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>44.96926226253673</v>
+        <v>47.57202289596675</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.59660043417334</v>
+        <v>7.071679286146024</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.59303040530421</v>
+        <v>26.73407694877385</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.60810722023584</v>
+        <v>33.71994057392514</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.3678333152423</v>
+        <v>-5.214924003889678</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.60159262494809</v>
+        <v>20.9638050022145</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>37.79082337347719</v>
+        <v>26.98892929394993</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>13.28073681380754</v>
+        <v>-7.661893648409098</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.16772220654685</v>
+        <v>19.30425055686339</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.10861391397277</v>
+        <v>25.50110643260235</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>22.86032260793795</v>
+        <v>0.3851642465903176</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.68757360378199</v>
+        <v>37.48708156926077</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>11.74210469251861</v>
+        <v>-5.594169664554009</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.52204647393902</v>
+        <v>13.05602984730235</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.6759140323962</v>
+        <v>21.09753520161598</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>8.266942761509291</v>
+        <v>-0.5842880041599088</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.56510960928643</v>
+        <v>23.11736517460251</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.49572070991348</v>
+        <v>29.84746498169952</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.29255717946611</v>
+        <v>5.4032761877253</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.6254011702806</v>
+        <v>34.49348110704983</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.64842729773275</v>
+        <v>42.78666899252808</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>33.34987596989404</v>
+        <v>32.52746890181636</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>40.65149733571975</v>
+        <v>37.27702351031538</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>43.82936525975976</v>
+        <v>42.42943831808638</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.48456230036211</v>
+        <v>4.473523487022625</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.46020208968452</v>
+        <v>21.28336668839577</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>43.48827102046219</v>
+        <v>33.3109401880975</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>16.32442672923778</v>
+        <v>-6.182529704916671</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.54580413527715</v>
+        <v>16.42702925242106</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.74342377531713</v>
+        <v>25.73967321216122</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>12.14787543100864</v>
+        <v>-6.736762192500279</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.02029412742649</v>
+        <v>15.76034565553383</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.97114981359511</v>
+        <v>24.63593347837719</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>21.69467796566284</v>
+        <v>-3.072691953385366</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.50895882298524</v>
+        <v>30.21876983796781</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>38.35760193069184</v>
+        <v>24.99686733365532</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.81674287137655</v>
+        <v>13.03095589549715</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>44.47288218707067</v>
+        <v>22.87278604991376</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>47.66368896372345</v>
+        <v>26.90643691101197</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.03725994195566</v>
+        <v>-0.5107254851301235</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>41.70620121862126</v>
+        <v>14.14905962620315</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>47.72674743623116</v>
+        <v>20.58162762046447</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.02207870370118</v>
+        <v>6.276872652951255</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.81988461014501</v>
+        <v>22.43257974806454</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>44.02221883625411</v>
+        <v>30.69335777475996</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.1066981498069</v>
+        <v>-7.540848814883393</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.61423634004495</v>
+        <v>8.676316443730279</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>41.59054140871868</v>
+        <v>13.9832744196294</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.53112792700472</v>
+        <v>-0.7034094890341187</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>43.89717024301164</v>
+        <v>26.67602708879153</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>47.95011455410885</v>
+        <v>36.09842210675869</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>46.934163462579</v>
+        <v>27.99355620166432</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>54.83230663700365</v>
+        <v>38.8290985308468</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>58.09412584455531</v>
+        <v>45.01556080441585</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.34175576618754</v>
+        <v>2.042917741872319</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>51.9170599863853</v>
+        <v>23.81682076880196</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>57.9746811353595</v>
+        <v>34.31214465354157</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.2547512165207</v>
+        <v>44.77796766287253</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.66210973359217</v>
+        <v>39.8365331020176</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>46.34289260763491</v>
+        <v>47.43854253704868</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>49.53593787932104</v>
+        <v>50.99516931539272</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.78239129609863</v>
+        <v>11.2244180329998</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>43.54912196554539</v>
+        <v>43.581127763498</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49.56624036590753</v>
+        <v>47.06455255574004</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.67485442662225</v>
+        <v>8.053001662252772</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.54592563375163</v>
+        <v>38.40957240112404</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.74541406500168</v>
+        <v>42.69316392930887</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.8865502139908</v>
+        <v>1.88183428193285</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.47270428359037</v>
+        <v>34.55320449381145</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.44575829103201</v>
+        <v>36.60814472333405</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.40257267019065</v>
+        <v>13.55577022197137</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>45.83461391136298</v>
+        <v>55.39660485067712</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>49.88485858877301</v>
+        <v>60.72316022669262</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>48.81797417083773</v>
+        <v>65.19636350724832</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>56.7409221797917</v>
+        <v>72.28440949464982</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>60.0044279453625</v>
+        <v>77.2924006147247</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.12499631535785</v>
+        <v>23.31889495869946</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>53.79887965479891</v>
+        <v>64.29617496326537</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>59.85218082527675</v>
+        <v>69.09648492452976</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.71791380942989</v>
+        <v>44.52780624171722</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>39.11353713341346</v>
+        <v>36.62054197848338</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.79365077249042</v>
+        <v>42.97300418939938</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.98539015624078</v>
+        <v>48.79230478980038</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.22122676044422</v>
+        <v>3.227432833787002</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.99514810890398</v>
+        <v>39.63197538691657</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>50.00757762450269</v>
+        <v>44.94468556888405</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.08922080625061</v>
+        <v>1.400590179339162</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>41.96388399944259</v>
+        <v>34.62242907447754</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.15998185595595</v>
+        <v>40.43667179923918</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.34249924960663</v>
+        <v>-2.308124216300421</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.93337474400933</v>
+        <v>33.33749406822967</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>43.90239708156471</v>
+        <v>37.14604700122817</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.86904784318657</v>
+        <v>10.33049282218707</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>46.3053956653189</v>
+        <v>54.98913926359675</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>50.35240915896254</v>
+        <v>61.81850261279331</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.27329754264628</v>
+        <v>65.58536481833201</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.19541318383089</v>
+        <v>71.24614551523131</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>60.45734231004041</v>
+        <v>78.43768718670967</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.56820783975616</v>
+        <v>17.41859279030257</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>54.2487905341447</v>
+        <v>63.60853459833952</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>60.29707486796401</v>
+        <v>69.80297160911127</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.54741515922192</v>
+        <v>40.64795922044823</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>37.9723104002144</v>
+        <v>22.38721962578065</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.65257959096554</v>
+        <v>30.13977517000318</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.84826671926916</v>
+        <v>38.5662885704147</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.11037388693922</v>
+        <v>-2.36816549761765</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.86486750655975</v>
+        <v>29.84684443982966</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.88965546230662</v>
+        <v>39.39638161109751</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.03716328562896</v>
+        <v>1.731979723012078</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>40.90025903308629</v>
+        <v>31.77139702721538</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.10523491672639</v>
+        <v>42.20424920970359</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>20.20124615760258</v>
+        <v>-0.2661009767476266</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.77842173086346</v>
+        <v>31.18656872788124</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.75796331461193</v>
+        <v>39.01658419295622</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.69504720879156</v>
+        <v>8.973893640452271</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.11921087768171</v>
+        <v>50.17853226685462</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>49.17477018540707</v>
+        <v>61.73457713347115</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>48.12561700671944</v>
+        <v>54.46878799858664</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.0482491365191</v>
+        <v>62.79555345927146</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.31463661210068</v>
+        <v>73.71497701634513</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.44964418644732</v>
+        <v>11.56248478042431</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>53.11203822767666</v>
+        <v>54.63794250271945</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>59.17332481611527</v>
+        <v>67.2043802457703</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-7.221905233476029</v>
+        <v>7.543895934912346</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>8.883570333281398</v>
+        <v>21.38846732052809</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.94813977841703</v>
+        <v>27.84922249353281</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-11.51161460500346</v>
+        <v>-0.1557414406180939</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>5.19743323711981</v>
+        <v>19.02258805003078</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>10.01659311006851</v>
+        <v>23.41888613591512</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2.89118200097635</v>
+        <v>7.173183713968317</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10.7949181647125</v>
+        <v>31.68953429319259</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>14.73234714490319</v>
+        <v>38.42718162728458</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.83218358874299</v>
+        <v>21.98496479177641</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.35937071293677</v>
+        <v>30.4708252832432</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.50744677580195</v>
+        <v>31.83917832467347</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-0.1690048784005924</v>
+        <v>13.50651182096995</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.33024047688635</v>
+        <v>18.83288174901367</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.22656881962856</v>
+        <v>30.24574924727918</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-2.729510242414612</v>
+        <v>15.10523104545161</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>13.79720900270305</v>
+        <v>29.9743255730155</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.89387051700453</v>
+        <v>34.42696408389118</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-7.755677244177107</v>
+        <v>1.91173826687595</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.500229047357593</v>
+        <v>16.09124074643506</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.32678702838349</v>
+        <v>19.58354004479276</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1.383823633892639</v>
+        <v>3.325512115581535</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>15.53002324113771</v>
+        <v>29.16451069415523</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-5.654340892484306</v>
+        <v>9.556613458544449</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>10.52287376005354</v>
+        <v>34.82468675501815</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>14.58429351812455</v>
+        <v>37.49302067684708</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-9.820575422361173</v>
+        <v>5.831180977239983</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>6.965489348458334</v>
+        <v>37.97069540815311</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>11.78095983386718</v>
+        <v>39.38399035703438</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1.112709926421367</v>
+        <v>16.53479376059084</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>12.63800427810738</v>
+        <v>52.73304082719654</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>16.57237572540615</v>
+        <v>55.55093459227132</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16.62545777281198</v>
+        <v>51.91902259864833</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>24.17731428550986</v>
+        <v>60.02620456104236</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.32720071863951</v>
+        <v>60.5651763035922</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1.525039797504434</v>
+        <v>26.89656509329757</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>22.12077812806352</v>
+        <v>47.69778201883097</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.01224426638694</v>
+        <v>54.7119353756205</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-1.147881532952489</v>
+        <v>17.80414492875462</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>15.4508478829942</v>
+        <v>45.90173384281084</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>19.5450756623115</v>
+        <v>47.87016510336452</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-6.051488697050353</v>
+        <v>10.13817377751143</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>11.2818188662062</v>
+        <v>39.42961039569389</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>16.105494398508</v>
+        <v>41.14654862139935</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>3.176898441858022</v>
+        <v>18.15347687981641</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.38804170362814</v>
+        <v>57.47776878087652</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-5.234398010364565</v>
+        <v>2.803501522571025</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>10.94650408158714</v>
+        <v>29.7389519732292</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.00467651390376</v>
+        <v>33.88347156240989</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-9.359392618781371</v>
+        <v>2.763103865852276</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.431553616445058</v>
+        <v>36.42176332756245</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>12.24313398573605</v>
+        <v>39.62763035809025</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-0.6404228744759735</v>
+        <v>13.48507547281267</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>13.11472479155017</v>
+        <v>51.33189350906011</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.04597501972171</v>
+        <v>55.59310169565158</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>17.08713375452557</v>
+        <v>53.10056272851772</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.63852124572841</v>
+        <v>60.25975449316099</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>27.78700345467161</v>
+        <v>62.65312728722365</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>1.973601397855511</v>
+        <v>20.63092397820652</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.57627447677744</v>
+        <v>44.96119229085274</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.46285143744329</v>
+        <v>53.40364008445687</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-0.7278759509916028</v>
+        <v>11.02295056714089</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>15.87411588995886</v>
+        <v>41.10540594168094</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.9652701957159</v>
+        <v>45.24843979082819</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-5.589867959095841</v>
+        <v>5.660129779373568</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>11.74778052261973</v>
+        <v>36.90515702601094</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.56778650754182</v>
+        <v>41.09472012735776</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>3.649505414969113</v>
+        <v>14.74286214290337</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>17.86462883723051</v>
+        <v>56.01240207526229</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-6.294676155956466</v>
+        <v>-1.008990674928945</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.874295782589627</v>
+        <v>22.90804313981976</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>13.94119263347319</v>
+        <v>31.62493060960773</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-10.50751774895106</v>
+        <v>4.102005338113308</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>6.269211450663796</v>
+        <v>34.05757366085551</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.09119123002819</v>
+        <v>41.32252871585846</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1.822361551309427</v>
+        <v>11.23807651546165</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>11.92017741194864</v>
+        <v>45.82528243306583</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.85989853105774</v>
+        <v>54.76658025202684</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>15.93056923245881</v>
+        <v>43.33021965898203</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.48178402833718</v>
+        <v>50.89932846817732</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.63438405145768</v>
+        <v>55.91589884496562</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.848430175262628</v>
+        <v>15.71587651056938</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.43216850550836</v>
+        <v>37.01459470204684</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.33168057471058</v>
+        <v>50.96791482914392</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1.787894001993052</v>
+        <v>9.75705970308975</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>14.80291183237023</v>
+        <v>35.92926095139506</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.90240667624669</v>
+        <v>44.15159670128145</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-6.738598395883507</v>
+        <v>7.064945475473962</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>10.58577976984418</v>
+        <v>33.54200910829286</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.41569432379965</v>
+        <v>41.31655913465028</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.467141131975495</v>
+        <v>11.03081696405244</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.67044721947006</v>
+        <v>48.12605118089597</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>19.47272626422436</v>
+        <v>34.6653046243874</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>19.28266722565925</v>
+        <v>25.11407476364141</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.17229962586636</v>
+        <v>36.18141596601274</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.33355144408395</v>
+        <v>39.93264306962004</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.271344144252332</v>
+        <v>11.40525191693335</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.51841976412591</v>
+        <v>29.12747807656539</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.39390870333256</v>
+        <v>35.35580219289857</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.608272080715025</v>
+        <v>11.87817797332242</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>21.68091765218632</v>
+        <v>29.28726397249626</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.79461340372609</v>
+        <v>36.65621267599889</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.07314035218802672</v>
+        <v>-4.080138051955636</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>17.78139562803318</v>
+        <v>14.11301924725661</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.64580777993176</v>
+        <v>18.19821648506842</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>9.912065801339963</v>
+        <v>1.106059653335144</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.5782846116238</v>
+        <v>29.88827501353079</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.54522700345606</v>
+        <v>38.45351923575279</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.88339536048581</v>
+        <v>33.22746188390013</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.97769242080846</v>
+        <v>45.86266068167757</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.19187111398475</v>
+        <v>50.57030002203625</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>13.13441572107926</v>
+        <v>7.815618360837945</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.15586943968888</v>
+        <v>31.6012094386813</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.07962728138869</v>
+        <v>41.80748530655018</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>21.32834000909178</v>
+        <v>60.44337440837147</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>21.08953848738844</v>
+        <v>60.393865639821</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.00379763849219</v>
+        <v>68.63605527059327</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.16721926439578</v>
+        <v>71.26356184477962</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>5.980180218665481</v>
+        <v>31.03584639461457</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.32430526229413</v>
+        <v>67.37102594171587</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.19588727500667</v>
+        <v>69.81633377271385</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>6.220191826430884</v>
+        <v>17.4588548492186</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.36537789563973</v>
+        <v>50.24744628317477</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.47599690133834</v>
+        <v>52.73574515468096</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1.66197481733083</v>
+        <v>9.583390772172791</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>19.59449847150995</v>
+        <v>45.2684966333579</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>24.45536104605879</v>
+        <v>45.27972478851363</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.7384721003848</v>
+        <v>20.34231147827012</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.47009846721873</v>
+        <v>64.81848896843766</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.43411237703538</v>
+        <v>68.36356912759999</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.72441492267228</v>
+        <v>78.0633095307231</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>38.84350291078094</v>
+        <v>86.33211517338208</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>42.05931478472928</v>
+        <v>89.10760951315976</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>14.87728647539377</v>
+        <v>36.1663359785198</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.99638167530154</v>
+        <v>80.10093256044283</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>42.91547269067722</v>
+        <v>83.8131096815475</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.80198605992305</v>
+        <v>61.14049670100856</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.55089204434926</v>
+        <v>58.60254153151307</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.46424780961725</v>
+        <v>65.58477890724372</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.62639323854677</v>
+        <v>70.44600542891868</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.428954692362232</v>
+        <v>24.32429291815669</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.77928615564891</v>
+        <v>65.07233737763016</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.64627136435374</v>
+        <v>69.26542541672322</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>6.644750171734422</v>
+        <v>11.00079090710272</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.7928973618758</v>
+        <v>46.87260305723922</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.90023112794427</v>
+        <v>50.85132796536113</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>2.127887235349903</v>
+        <v>5.959829913974851</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.06444823393675</v>
+        <v>44.75116458273961</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.92139254166297</v>
+        <v>46.55362405080024</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.21542632203128</v>
+        <v>17.75012918603936</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.95074748351281</v>
+        <v>65.27917183792033</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>30.91162991191543</v>
+        <v>70.27438092110313</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>31.18915957489404</v>
+        <v>79.75343078831295</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>39.30721123457627</v>
+        <v>86.54319805631002</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.52149935104411</v>
+        <v>91.44960406113168</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>15.32992316774914</v>
+        <v>31.48738867404153</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>37.45479047635624</v>
+        <v>80.88266326671658</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.3689981112653</v>
+        <v>85.91443099053106</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.61587654580902</v>
+        <v>57.41950917029735</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>20.39505531136322</v>
+        <v>42.37328285599555</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.30904664324446</v>
+        <v>51.43260267487664</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.47508093103631</v>
+        <v>59.59936178067851</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.303603502669411</v>
+        <v>17.13276578108524</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.63626841732436</v>
+        <v>53.71155678224157</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.51554718179957</v>
+        <v>62.85810559073137</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.577761403797396</v>
+        <v>11.36427618851374</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.71543923467065</v>
+        <v>43.54264567708285</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.83156073450583</v>
+        <v>52.8834183328884</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>0.972535144988484</v>
+        <v>8.537492946945978</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>18.89659036793969</v>
+        <v>42.67519581395998</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>23.76395230646015</v>
+        <v>49.30937439175199</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>11.02647673643467</v>
+        <v>16.32637622068392</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.75067897391964</v>
+        <v>59.86513792782939</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.72002190766541</v>
+        <v>70.32735004781786</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.02848678353738</v>
+        <v>66.83158919519477</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.14745831493562</v>
+        <v>76.99346892254447</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>41.36610644322452</v>
+        <v>86.34428242416337</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.19849404080153</v>
+        <v>24.30979708023656</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.30679596552147</v>
+        <v>70.35379966995148</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>42.23388188335191</v>
+        <v>82.35570313594874</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>2.470436870751357</v>
+        <v>11.16257948201101</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.14239243793644</v>
+        <v>14.23737489756842</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.16543442635384</v>
+        <v>18.50661823510463</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.379299928787866</v>
+        <v>1.354011045862695</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.75039034942883</v>
+        <v>7.94364506458156</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.5051933731199</v>
+        <v>10.66999308142501</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.738194340992798</v>
+        <v>6.052018304858812</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.09920131169135</v>
+        <v>18.81146718717225</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.98225830520123</v>
+        <v>23.43835100303387</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.36000537171532</v>
+        <v>12.73090553985155</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.15017075774765</v>
+        <v>17.20510936723945</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.24457224390579</v>
+        <v>18.64051888567412</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.732676115199595</v>
+        <v>8.424658767006848</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.28881957237294</v>
+        <v>7.557041231640465</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.10326640937024</v>
+        <v>13.41260331312785</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.93933023842277</v>
+        <v>9.530448618132429</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.03696288116281</v>
+        <v>15.87230468604304</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.11870129283086</v>
+        <v>22.06657628372319</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.433219451493258</v>
+        <v>0.4951292995396273</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.11708177974583</v>
+        <v>5.518842434746647</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.91183305234162</v>
+        <v>10.88400843752033</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.0465376179023</v>
+        <v>-0.2719728283171889</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.87192735466192</v>
+        <v>16.0349130798045</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.013622023525578</v>
+        <v>10.03045861266163</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.75476153962978</v>
+        <v>22.93569635081863</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.77534986000912</v>
+        <v>24.59659445378324</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>0.2866724196555808</v>
+        <v>3.995380204701696</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.49049327418193</v>
+        <v>21.92462166216749</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.24241442233044</v>
+        <v>22.78701313086634</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.488460627552364</v>
+        <v>11.18636393623152</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.91169800707264</v>
+        <v>33.99800177633137</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.79236722765645</v>
+        <v>35.89516472325509</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.12193396584264</v>
+        <v>34.39014881148883</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.93571341183662</v>
+        <v>38.98637019305095</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.03210151017691</v>
+        <v>40.51645131264889</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.397280041988516</v>
+        <v>15.21245093518089</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.04646600737029</v>
+        <v>28.01302869945859</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.85705998016732</v>
+        <v>30.79703588221252</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.494514190034494</v>
+        <v>8.311353132762285</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.66158048832598</v>
+        <v>26.10492603857746</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.74160778529688</v>
+        <v>31.38452715507779</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.110308855947729</v>
+        <v>4.535721945969506</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.86866339972583</v>
+        <v>22.89553977483953</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.66137129675612</v>
+        <v>28.03087369707357</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.80918173787752</v>
+        <v>9.105657621240812</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.69711305454613</v>
+        <v>37.06452384684539</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.417537061742784</v>
+        <v>3.620812453488206</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.16315095494605</v>
+        <v>17.7633367959829</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.18064993309804</v>
+        <v>21.10221430693712</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>0.7310174626245782</v>
+        <v>0.6284997224422071</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>15.94053659759517</v>
+        <v>19.70529041400701</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.68877471009688</v>
+        <v>22.501649385595</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.943586613361056</v>
+        <v>7.812030144973875</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.37196264779214</v>
+        <v>31.83947360667886</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.24967586365587</v>
+        <v>35.39106532379726</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.56762230538727</v>
+        <v>34.11047230103871</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.38133564490719</v>
+        <v>37.79198169243024</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.47639633131411</v>
+        <v>41.23538521349654</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.829974559149257</v>
+        <v>8.343166718767005</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.4871208120991</v>
+        <v>23.95729761162097</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>34.29309638325385</v>
+        <v>28.41398695768929</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.897921438425961</v>
+        <v>1.529649645610633</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.06902631844721</v>
+        <v>20.79372202825406</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.14611815017524</v>
+        <v>28.43077764096464</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.554454463550087</v>
+        <v>-0.5607774352136836</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.31795342111255</v>
+        <v>19.28523266229482</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.10717362322602</v>
+        <v>27.02015988332251</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.26395847271861</v>
+        <v>4.936060684362076</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.15656641072508</v>
+        <v>34.32236529917466</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.393272075516791</v>
+        <v>0.5609256518470929</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.12560175443432</v>
+        <v>11.91789071040913</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.15136949988004</v>
+        <v>19.10907882040855</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.3796593973641578</v>
+        <v>1.414600784645629</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>14.81420962599467</v>
+        <v>17.03716758680353</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.57228368640715</v>
+        <v>23.11452069291331</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.800057988437999</v>
+        <v>5.797598847009763</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.21459533657089</v>
+        <v>26.81868196259666</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.10031371706461</v>
+        <v>34.34987196343977</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.44707135103195</v>
+        <v>26.60988491654668</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.25980055931765</v>
+        <v>30.09734387613166</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.35880863829956</v>
+        <v>35.32877275329786</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.740388600777564</v>
+        <v>5.35583442481901</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.37677878965301</v>
+        <v>18.00307874016851</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.19497502154559</v>
+        <v>27.05600515911853</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.875158012065704</v>
+        <v>0.07239384592405429</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.03374614039079</v>
+        <v>15.68853790028209</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.11876402626455</v>
+        <v>26.25422434706814</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.444555097105557</v>
+        <v>-0.6098621276161111</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.19338026429044</v>
+        <v>14.72246703947285</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.99199621322666</v>
+        <v>24.78230002512707</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.12145898744779</v>
+        <v>0.7259525406683025</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.00104013118997</v>
+        <v>26.23894652988653</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.78670156522016</v>
+        <v>23.36414148169859</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.87558864910772</v>
+        <v>12.70854826100515</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.03274944704246</v>
+        <v>21.02076731818873</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.15255502755268</v>
+        <v>25.77128946670373</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.2353289748326</v>
+        <v>2.472691876341479</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.54273897049192</v>
+        <v>12.77729977900283</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>37.37907224338233</v>
+        <v>18.96879030247535</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.9925186265542</v>
+        <v>11.44674207186593</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.72845039374173</v>
+        <v>21.53821567213221</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.81105572649412</v>
+        <v>30.49006244334989</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.81978921236427</v>
+        <v>-3.127090809832406</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.20303668181688</v>
+        <v>6.93550074771105</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.01892320320272</v>
+        <v>12.95532624989248</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.38736174698619</v>
+        <v>2.361656855328711</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.81802556847448</v>
+        <v>22.88042284218063</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.74382924956029</v>
+        <v>33.04910270248691</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.30955747472332</v>
+        <v>25.64957447066656</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.70738886561873</v>
+        <v>34.54417218677953</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>47.89437488138041</v>
+        <v>42.30308270489905</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.86650103199707</v>
+        <v>3.949535670244256</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.07026525680075</v>
+        <v>20.39722263315146</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.934314738808</v>
+        <v>30.71064723544419</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.61017702568972</v>
+        <v>43.43384762758021</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.6490109133494</v>
+        <v>38.41335635605959</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.829756831259</v>
+        <v>44.77814995349475</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.95192195507999</v>
+        <v>49.48433605742811</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.91267470341536</v>
+        <v>14.00406453217797</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.31364611951832</v>
+        <v>41.10926161313918</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.14712817885338</v>
+        <v>45.16709288766403</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.58230657847815</v>
+        <v>14.672469839621</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.38833422723332</v>
+        <v>38.21180107853512</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.468510189077</v>
+        <v>43.95886399962242</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>12.53219704866198</v>
+        <v>7.877769644696048</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.99067233735605</v>
+        <v>33.49494396859521</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.80377253465645</v>
+        <v>37.04951975776898</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.1880967302433</v>
+        <v>17.96489711950142</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.68189382660383</v>
+        <v>52.18499409300134</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.60539501712721</v>
+        <v>59.0276821918273</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>39.1218661563811</v>
+        <v>62.66998082855492</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>46.5434353434871</v>
+        <v>68.18671037618635</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>49.73224687673318</v>
+        <v>75.2410201129988</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.58233720625567</v>
+        <v>25.89564260198608</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>43.8804312607383</v>
+        <v>60.5518744921552</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.7407640748122</v>
+        <v>66.11072501229482</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.06683401547154</v>
+        <v>43.04521499858853</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.09371494291243</v>
+        <v>34.84862963599787</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.27395511763274</v>
+        <v>40.01339665252971</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.394910301093</v>
+        <v>46.99755672866779</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.34492585534039</v>
+        <v>6.156454053429584</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.75311552650714</v>
+        <v>36.86899987124114</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.58224032887303</v>
+        <v>42.92609598052096</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.99042411578766</v>
+        <v>8.252470363115822</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.80014474447265</v>
+        <v>34.37152124251291</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.87715717089162</v>
+        <v>41.84490791901221</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>12.98082654402148</v>
+        <v>3.765590817767396</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.44409730333986</v>
+        <v>32.03599577328077</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.2534445565197</v>
+        <v>37.55608058009267</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.64738119965952</v>
+        <v>14.75413006495048</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.14553053321077</v>
+        <v>51.51717857094084</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.0660287118842</v>
+        <v>60.05691134192173</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.57010060776378</v>
+        <v>62.64626740313921</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>46.9910002907659</v>
+        <v>66.81137804251955</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.17834057106431</v>
+        <v>76.07873856820808</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.01857566143002</v>
+        <v>20.1243578839797</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>44.32339827688723</v>
+        <v>59.50958902708108</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>50.17906254500623</v>
+        <v>66.6726228139166</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.91895583714678</v>
+        <v>37.99399560017018</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.97533265084023</v>
+        <v>20.45756861419559</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.15539936588741</v>
+        <v>26.77819345360695</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.28009453101426</v>
+        <v>36.05280780994212</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.25657123349177</v>
+        <v>0.2626906607928419</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.64530470927059</v>
+        <v>26.59539657037958</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.48607162101564</v>
+        <v>36.4420684512168</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.95958596158805</v>
+        <v>7.115542473122925</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.75760826160399</v>
+        <v>29.97397916652097</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.84300688959505</v>
+        <v>41.69487315310792</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.86312683469751</v>
+        <v>3.750746834947702</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.312595108607</v>
+        <v>27.79314372843637</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.13185949592155</v>
+        <v>36.96675027062878</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>21.49711940810772</v>
+        <v>11.44126718606903</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.98303054108619</v>
+        <v>44.68755297909297</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>38.91157995623305</v>
+        <v>57.58544934797968</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.44576316201258</v>
+        <v>49.96362868147907</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>45.86685270635432</v>
+        <v>56.51835612397159</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>49.05842340619344</v>
+        <v>69.19713015217658</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.9230640368699</v>
+        <v>12.77890391585552</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.20966334764083</v>
+        <v>48.84898020577242</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.07757729377014</v>
+        <v>61.88205275274711</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>62.59864472467821</v>
+        <v>15.01179900744108</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>80.78805191940174</v>
+        <v>26.73488291172303</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>85.65463928391178</v>
+        <v>33.82909625366626</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>59.63985002139761</v>
+        <v>12.70624309292076</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>78.42644301266321</v>
+        <v>30.89302973534192</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>84.22016467750527</v>
+        <v>35.55619642982197</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>72.44795728886233</v>
+        <v>15.56739223439829</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>87.79638656943646</v>
+        <v>37.5731289380282</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>92.53058776029341</v>
+        <v>44.95295915686878</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>87.68415275018197</v>
+        <v>28.43264922146336</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>96.1438453800705</v>
+        <v>36.74578347141553</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>99.88110262705536</v>
+        <v>37.93942999496474</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>68.34509180823488</v>
+        <v>22.54472785693235</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>91.31684686840242</v>
+        <v>25.94439493188445</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>98.40970575401519</v>
+        <v>38.90665632573883</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>67.9439580051629</v>
+        <v>18.84994153009142</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>86.68340802948471</v>
+        <v>29.60127620273854</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>91.59666090871403</v>
+        <v>35.05853221143563</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>64.12089359566481</v>
+        <v>12.93334145872469</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>83.61596514089881</v>
+        <v>23.71282527120413</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>89.4275706942819</v>
+        <v>27.75299996940007</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>77.55975213089383</v>
+        <v>7.026698306053609</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>93.50349014995027</v>
+        <v>28.41464722305269</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>64.56312547547519</v>
+        <v>16.22449471947705</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>82.83674320718076</v>
+        <v>39.187736841044</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>87.7000589925205</v>
+        <v>42.66142410782705</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>61.75571154128139</v>
+        <v>18.14419695301878</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>80.63261107964698</v>
+        <v>49.03215351043598</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>86.42249267980318</v>
+        <v>50.90841306331503</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>74.66959057183969</v>
+        <v>24.16122906647268</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>90.09380233374689</v>
+        <v>57.67253851515643</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>94.82484663193027</v>
+        <v>61.3041075898441</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>89.91584522968763</v>
+        <v>57.86265489199407</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>98.40430923106184</v>
+        <v>65.64639337962814</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>102.1440810191389</v>
+        <v>65.93129423132523</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>70.45703885745748</v>
+        <v>36.00210519972221</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>93.54194630455663</v>
+        <v>54.57495424281529</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>100.6297292050471</v>
+        <v>63.29074398596268</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>69.92429422377354</v>
+        <v>20.96332006235355</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>88.74833082592619</v>
+        <v>44.7119113654789</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>93.65917748827292</v>
+        <v>47.85418874114256</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>66.25151278331786</v>
+        <v>20.94190047285777</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>85.83740286265856</v>
+        <v>46.50638344828473</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>91.64614541453619</v>
+        <v>48.95952107775233</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>79.79778057585457</v>
+        <v>21.36664622849591</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>95.81774278784025</v>
+        <v>56.02146922096238</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>65.00031701909246</v>
+        <v>9.041610301481478</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>83.27919966739898</v>
+        <v>33.66058596582769</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>88.13869542030855</v>
+        <v>38.61507765293007</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>62.24077721995027</v>
+        <v>14.65391221401288</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>81.12444538691634</v>
+        <v>47.01167858684111</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>86.90972953396827</v>
+        <v>50.70922253002556</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>75.16550483451694</v>
+        <v>20.66908364720995</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>90.59583139502729</v>
+        <v>55.82569359618196</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>95.32318877969408</v>
+        <v>60.90247742851277</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>90.40340181655287</v>
+        <v>58.66765570873477</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>98.89170767909408</v>
+        <v>65.49899094408799</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>102.6298945246108</v>
+        <v>67.60800848902829</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>70.92999067487193</v>
+        <v>29.50449604529128</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>94.02443108361499</v>
+        <v>51.55118953217998</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>101.1064480341569</v>
+        <v>61.68099597157</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>70.36138976111052</v>
+        <v>13.93508092010446</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>89.19014980804558</v>
+        <v>39.64916923376708</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>94.09737789654699</v>
+        <v>44.98175463284189</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>66.73692856075655</v>
+        <v>16.27925562615765</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>86.32889999120707</v>
+        <v>43.74142493530638</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>92.13330272125151</v>
+        <v>48.7097782496597</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>80.29386767367045</v>
+        <v>17.76579183434573</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>96.31937015100131</v>
+        <v>54.35514358012125</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>63.84963841868876</v>
+        <v>5.122663560676266</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>82.11290119501525</v>
+        <v>26.82865646736175</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>86.98261000291934</v>
+        <v>36.12744629469977</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>60.98730214625027</v>
+        <v>15.8496834312098</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>79.85248539151085</v>
+        <v>44.62505598989804</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>85.64999497711209</v>
+        <v>52.16654539616887</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>73.87614809902041</v>
+        <v>18.33558641703193</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>89.29010276463637</v>
+        <v>50.34118305258056</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>94.02740408250679</v>
+        <v>59.86390730951555</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>89.13663331835264</v>
+        <v>48.49609097419579</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>97.62404148454112</v>
+        <v>55.87191150987563</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>101.3669273090299</v>
+        <v>60.66478256630187</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>69.69859186498827</v>
+        <v>23.91016307714795</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>92.76841709561259</v>
+        <v>43.07463831158481</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>99.86562584424605</v>
+        <v>58.50632783914939</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>69.21147754207092</v>
+        <v>13.15662749942272</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>88.02557098360754</v>
+        <v>35.07251335403662</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>92.94256639637842</v>
+        <v>44.31004678321706</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>65.48321270472873</v>
+        <v>18.14132741110753</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>85.05791079338407</v>
+        <v>40.97128095199231</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>90.8739651461641</v>
+        <v>49.37359944264632</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>79.00456385603789</v>
+        <v>14.60528903696084</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>95.01470384516836</v>
+        <v>47.13174940911833</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>98.25127441418141</v>
+        <v>34.94738728038233</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>93.05214330574972</v>
+        <v>24.46778483199655</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>101.9724215209787</v>
+        <v>34.21509602473003</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>105.7338326376469</v>
+        <v>38.19128666604664</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>73.69164987927354</v>
+        <v>12.89382650210737</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>97.6244221044023</v>
+        <v>26.11665390465192</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>104.7057160786252</v>
+        <v>33.78094585408462</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>74.71208776154477</v>
+        <v>15.33317265795097</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>94.19910183698099</v>
+        <v>28.75789488009528</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>99.12671382268709</v>
+        <v>36.97340336431074</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>71.18197010683279</v>
+        <v>8.21947708478546</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>91.49689241886139</v>
+        <v>23.07134256550856</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>97.34727512524525</v>
+        <v>27.57800028571558</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>85.59605805028649</v>
+        <v>6.18053791784498</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>102.2495661012524</v>
+        <v>30.65854941140381</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>107.0213061453055</v>
+        <v>40.08935746464952</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>102.5305731319014</v>
+        <v>34.44507312009844</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>111.7338167830059</v>
+        <v>45.82742077339628</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>115.5570651282673</v>
+        <v>50.72828950260805</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>82.26164048266034</v>
+        <v>11.1776109014166</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>107.2511169026827</v>
+        <v>30.48973744949863</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>114.3793172940621</v>
+        <v>42.10622733535924</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>100.563158908118</v>
+        <v>60.18521438457476</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>95.29908577587892</v>
+        <v>59.4359853472287</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>104.24810738976</v>
+        <v>66.19150835706012</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>108.0124706922961</v>
+        <v>68.99116465975283</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>75.82030044775472</v>
+        <v>32.72243716354939</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>99.86695365123555</v>
+        <v>64.08924576138088</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>106.9443363002708</v>
+        <v>68.18978908656354</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>76.72893067800769</v>
+        <v>21.05294555088184</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>96.30136126995816</v>
+        <v>49.61194365246898</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>101.2256990670551</v>
+        <v>53.187324874402</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>73.34992245378628</v>
+        <v>22.28924802211588</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>93.75658995159897</v>
+        <v>54.28196882888207</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>99.60320008718509</v>
+        <v>54.9900164632344</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>87.8743116072109</v>
+        <v>25.65980637149633</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>104.6047888597216</v>
+        <v>65.60180026095271</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>109.373438685834</v>
+        <v>70.24656283006146</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>104.8187161112124</v>
+        <v>79.5648245315046</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>114.0509416616742</v>
+        <v>86.43039021791941</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>117.8764460106656</v>
+        <v>89.38249936006275</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>84.43126894796993</v>
+        <v>40.2831084810356</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>109.5355916665855</v>
+        <v>79.22599274620438</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>116.6588273458165</v>
+        <v>84.6869311602768</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>101.0613094180488</v>
+        <v>60.69349715218316</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>95.78601899825965</v>
+        <v>57.58271585119242</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>104.7343383557852</v>
+        <v>63.07324073275222</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>108.4972613396339</v>
+        <v>68.08268411502632</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>76.29327490732528</v>
+        <v>26.06962285060185</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>100.3485393072341</v>
+        <v>61.77157544420783</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>107.4204975522673</v>
+        <v>67.62943741295564</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>77.17371108909541</v>
+        <v>14.58272881351442</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>96.75047488845073</v>
+        <v>46.18055524206983</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>101.6709025540248</v>
+        <v>51.28501881970519</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>73.84286630749739</v>
+        <v>18.64432869247005</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>94.25522443876585</v>
+        <v>53.65915025546084</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>100.0971536232312</v>
+        <v>56.22663582002725</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>88.37802793746999</v>
+        <v>23.05710803246636</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>105.1136796197388</v>
+        <v>66.01690373318513</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>109.8785876145677</v>
+        <v>72.14670082478796</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>105.3119545157478</v>
+        <v>81.29218839711288</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>114.5432984678314</v>
+        <v>86.6735618162792</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>118.3670474899129</v>
+        <v>91.73860105781318</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>84.91110251738399</v>
+        <v>35.7802155294523</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>110.0234733566908</v>
+        <v>80.06490712138987</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>117.1408889585951</v>
+        <v>86.87718005582715</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>99.76612178785462</v>
+        <v>57.45681977257198</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>94.52074183114699</v>
+        <v>41.71428702419001</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>103.4691726288439</v>
+        <v>49.44313289272513</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>107.2365371003607</v>
+        <v>57.81782284578918</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>75.06225626191873</v>
+        <v>18.94426639062353</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>99.09452026173966</v>
+        <v>50.72006560310587</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>106.1809194552629</v>
+        <v>61.31357355959624</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>76.01104703601573</v>
+        <v>14.89799569970448</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>95.57406741904288</v>
+        <v>42.8703253213196</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>100.5048521082207</v>
+        <v>53.11980825959886</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>72.57652087963109</v>
+        <v>21.05561828629941</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>92.9725846835774</v>
+        <v>51.5135666241928</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>98.82683716920809</v>
+        <v>58.70227321286198</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>87.0760520917419</v>
+        <v>21.50115686815093</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>103.7972322027327</v>
+        <v>60.5362414541644</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>108.5721377670284</v>
+        <v>71.91658361724743</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>104.0364369147204</v>
+        <v>68.0181821628541</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>113.2682831959297</v>
+        <v>76.92841326411147</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>117.0970670196199</v>
+        <v>86.44950478443491</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>83.66836506221023</v>
+        <v>28.05165475606224</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>108.7591510662786</v>
+        <v>69.19345104405191</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>115.8917830096689</v>
+        <v>82.65131569907525</v>
       </c>
     </row>
   </sheetData>
